--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.1407585</v>
+        <v>8.1698275</v>
       </c>
       <c r="H2">
-        <v>42.281517</v>
+        <v>16.339655</v>
       </c>
       <c r="I2">
-        <v>0.2318237349109483</v>
+        <v>0.1296158649614687</v>
       </c>
       <c r="J2">
-        <v>0.1746565509177827</v>
+        <v>0.09484980625298997</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N2">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O2">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P2">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q2">
-        <v>283.6137293825783</v>
+        <v>135.2762079906875</v>
       </c>
       <c r="R2">
-        <v>1134.454917530313</v>
+        <v>541.10483196275</v>
       </c>
       <c r="S2">
-        <v>0.03151147659605832</v>
+        <v>0.02654367784235583</v>
       </c>
       <c r="T2">
-        <v>0.01761233053028948</v>
+        <v>0.01475728632893736</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.1407585</v>
+        <v>8.1698275</v>
       </c>
       <c r="H3">
-        <v>42.281517</v>
+        <v>16.339655</v>
       </c>
       <c r="I3">
-        <v>0.2318237349109483</v>
+        <v>0.1296158649614687</v>
       </c>
       <c r="J3">
-        <v>0.1746565509177827</v>
+        <v>0.09484980625298997</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N3">
         <v>60.953383</v>
       </c>
       <c r="O3">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P3">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q3">
-        <v>429.5335832536686</v>
+        <v>165.9928748838108</v>
       </c>
       <c r="R3">
-        <v>2577.201499522011</v>
+        <v>995.957249302865</v>
       </c>
       <c r="S3">
-        <v>0.04772419686940051</v>
+        <v>0.03257085233602695</v>
       </c>
       <c r="T3">
-        <v>0.04001086685009366</v>
+        <v>0.02716225291507843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.1407585</v>
+        <v>8.1698275</v>
       </c>
       <c r="H4">
-        <v>42.281517</v>
+        <v>16.339655</v>
       </c>
       <c r="I4">
-        <v>0.2318237349109483</v>
+        <v>0.1296158649614687</v>
       </c>
       <c r="J4">
-        <v>0.1746565509177827</v>
+        <v>0.09484980625298997</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N4">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O4">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P4">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q4">
-        <v>385.152316791012</v>
+        <v>85.0077985918025</v>
       </c>
       <c r="R4">
-        <v>2310.913900746072</v>
+        <v>510.0467915508149</v>
       </c>
       <c r="S4">
-        <v>0.04279312656301591</v>
+        <v>0.01668009218638068</v>
       </c>
       <c r="T4">
-        <v>0.03587677114184915</v>
+        <v>0.01391025564633909</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.1407585</v>
+        <v>8.1698275</v>
       </c>
       <c r="H5">
-        <v>42.281517</v>
+        <v>16.339655</v>
       </c>
       <c r="I5">
-        <v>0.2318237349109483</v>
+        <v>0.1296158649614687</v>
       </c>
       <c r="J5">
-        <v>0.1746565509177827</v>
+        <v>0.09484980625298997</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N5">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O5">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P5">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q5">
-        <v>350.821627655277</v>
+        <v>107.5051056824312</v>
       </c>
       <c r="R5">
-        <v>1403.286510621108</v>
+        <v>430.0204227297249</v>
       </c>
       <c r="S5">
-        <v>0.03897874596309803</v>
+        <v>0.02109447724790832</v>
       </c>
       <c r="T5">
-        <v>0.02178592156624428</v>
+        <v>0.01172773579288624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.1407585</v>
+        <v>8.1698275</v>
       </c>
       <c r="H6">
-        <v>42.281517</v>
+        <v>16.339655</v>
       </c>
       <c r="I6">
-        <v>0.2318237349109483</v>
+        <v>0.1296158649614687</v>
       </c>
       <c r="J6">
-        <v>0.1746565509177827</v>
+        <v>0.09484980625298997</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N6">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O6">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P6">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q6">
-        <v>212.512612446795</v>
+        <v>59.66682917471417</v>
       </c>
       <c r="R6">
-        <v>1275.07567468077</v>
+        <v>358.0009750482851</v>
       </c>
       <c r="S6">
-        <v>0.02361164330112909</v>
+        <v>0.0117077283212841</v>
       </c>
       <c r="T6">
-        <v>0.01979545761280507</v>
+        <v>0.009763584767230458</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.1407585</v>
+        <v>8.1698275</v>
       </c>
       <c r="H7">
-        <v>42.281517</v>
+        <v>16.339655</v>
       </c>
       <c r="I7">
-        <v>0.2318237349109483</v>
+        <v>0.1296158649614687</v>
       </c>
       <c r="J7">
-        <v>0.1746565509177827</v>
+        <v>0.09484980625298997</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N7">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O7">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P7">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q7">
-        <v>424.8565498284379</v>
+        <v>107.1206349619192</v>
       </c>
       <c r="R7">
-        <v>2549.139298970628</v>
+        <v>642.7238097715151</v>
       </c>
       <c r="S7">
-        <v>0.04720454561824641</v>
+        <v>0.02101903702751278</v>
       </c>
       <c r="T7">
-        <v>0.03957520321650107</v>
+        <v>0.0175286908025184</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>109.849895</v>
       </c>
       <c r="I8">
-        <v>0.401527897536182</v>
+        <v>0.5809298158927473</v>
       </c>
       <c r="J8">
-        <v>0.4537681034334833</v>
+        <v>0.637665927319842</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N8">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O8">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P8">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q8">
-        <v>491.2302207326926</v>
+        <v>606.2991025524584</v>
       </c>
       <c r="R8">
-        <v>2947.381324396155</v>
+        <v>3637.79461531475</v>
       </c>
       <c r="S8">
-        <v>0.05457912646751321</v>
+        <v>0.1189670252685512</v>
       </c>
       <c r="T8">
-        <v>0.0457578818531415</v>
+        <v>0.09921178591094516</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>109.849895</v>
       </c>
       <c r="I9">
-        <v>0.401527897536182</v>
+        <v>0.5809298158927473</v>
       </c>
       <c r="J9">
-        <v>0.4537681034334833</v>
+        <v>0.637665927319842</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N9">
         <v>60.953383</v>
       </c>
       <c r="O9">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P9">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q9">
-        <v>743.969191382754</v>
+        <v>743.9691913827539</v>
       </c>
       <c r="R9">
-        <v>6695.722722444785</v>
+        <v>6695.722722444784</v>
       </c>
       <c r="S9">
-        <v>0.08266020059565626</v>
+        <v>0.1459804265215745</v>
       </c>
       <c r="T9">
-        <v>0.1039506109097687</v>
+        <v>0.1826091573343996</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>109.849895</v>
       </c>
       <c r="I10">
-        <v>0.401527897536182</v>
+        <v>0.5809298158927473</v>
       </c>
       <c r="J10">
-        <v>0.4537681034334833</v>
+        <v>0.637665927319842</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N10">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O10">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P10">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q10">
-        <v>667.0990787534801</v>
+        <v>380.9993846051484</v>
       </c>
       <c r="R10">
-        <v>6003.89170878132</v>
+        <v>3428.994461446335</v>
       </c>
       <c r="S10">
-        <v>0.07411939137486495</v>
+        <v>0.07475908050136262</v>
       </c>
       <c r="T10">
-        <v>0.09320998446841817</v>
+        <v>0.0935172818626529</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>109.849895</v>
       </c>
       <c r="I11">
-        <v>0.401527897536182</v>
+        <v>0.5809298158927473</v>
       </c>
       <c r="J11">
-        <v>0.4537681034334833</v>
+        <v>0.637665927319842</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N11">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O11">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P11">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q11">
-        <v>607.6369644236634</v>
+        <v>481.8308412337541</v>
       </c>
       <c r="R11">
-        <v>3645.82178654198</v>
+        <v>2890.985047402525</v>
       </c>
       <c r="S11">
-        <v>0.06751273298729234</v>
+        <v>0.09454406516998545</v>
       </c>
       <c r="T11">
-        <v>0.05660111950406534</v>
+        <v>0.07884441534636411</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>109.849895</v>
       </c>
       <c r="I12">
-        <v>0.401527897536182</v>
+        <v>0.5809298158927473</v>
       </c>
       <c r="J12">
-        <v>0.4537681034334833</v>
+        <v>0.637665927319842</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N12">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O12">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P12">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q12">
-        <v>368.0802680038834</v>
+        <v>267.4228197117295</v>
       </c>
       <c r="R12">
-        <v>3312.72241203495</v>
+        <v>2406.805377405565</v>
       </c>
       <c r="S12">
-        <v>0.04089630207932991</v>
+        <v>0.05247327138716963</v>
       </c>
       <c r="T12">
-        <v>0.05142977581063583</v>
+        <v>0.06563962100202637</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>109.849895</v>
       </c>
       <c r="I13">
-        <v>0.401527897536182</v>
+        <v>0.5809298158927473</v>
       </c>
       <c r="J13">
-        <v>0.4537681034334833</v>
+        <v>0.637665927319842</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N13">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O13">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P13">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q13">
-        <v>735.8683841092421</v>
+        <v>480.1076686502929</v>
       </c>
       <c r="R13">
-        <v>6622.81545698318</v>
+        <v>4320.969017852635</v>
       </c>
       <c r="S13">
-        <v>0.08176014403152532</v>
+        <v>0.0942059470441039</v>
       </c>
       <c r="T13">
-        <v>0.1028187308874539</v>
+        <v>0.1178436658634538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.439194333333334</v>
+        <v>3.664061</v>
       </c>
       <c r="H14">
-        <v>19.317583</v>
+        <v>10.992183</v>
       </c>
       <c r="I14">
-        <v>0.07061043151175238</v>
+        <v>0.05813102367052226</v>
       </c>
       <c r="J14">
-        <v>0.07979709949498723</v>
+        <v>0.06380835016696558</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N14">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O14">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P14">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q14">
-        <v>86.38497616326451</v>
+        <v>60.669613639525</v>
       </c>
       <c r="R14">
-        <v>518.3098569795872</v>
+        <v>364.01768183715</v>
       </c>
       <c r="S14">
-        <v>0.009597977363598601</v>
+        <v>0.01190449306043978</v>
       </c>
       <c r="T14">
-        <v>0.00804672303603253</v>
+        <v>0.00992767545649389</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.439194333333334</v>
+        <v>3.664061</v>
       </c>
       <c r="H15">
-        <v>19.317583</v>
+        <v>10.992183</v>
       </c>
       <c r="I15">
-        <v>0.07061043151175238</v>
+        <v>0.05813102367052226</v>
       </c>
       <c r="J15">
-        <v>0.07979709949498723</v>
+        <v>0.06380835016696558</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N15">
         <v>60.953383</v>
       </c>
       <c r="O15">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P15">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q15">
-        <v>130.8302261370321</v>
+        <v>74.44563782278766</v>
       </c>
       <c r="R15">
-        <v>1177.472035233289</v>
+        <v>670.0107404050889</v>
       </c>
       <c r="S15">
-        <v>0.01453615668729806</v>
+        <v>0.01460760215331293</v>
       </c>
       <c r="T15">
-        <v>0.01828016817084952</v>
+        <v>0.01827287386023912</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.439194333333334</v>
+        <v>3.664061</v>
       </c>
       <c r="H16">
-        <v>19.317583</v>
+        <v>10.992183</v>
       </c>
       <c r="I16">
-        <v>0.07061043151175238</v>
+        <v>0.05813102367052226</v>
       </c>
       <c r="J16">
-        <v>0.07979709949498723</v>
+        <v>0.06380835016696558</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N16">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O16">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P16">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q16">
-        <v>117.312281664392</v>
+        <v>38.12488813455099</v>
       </c>
       <c r="R16">
-        <v>1055.810534979528</v>
+        <v>343.1239932109589</v>
       </c>
       <c r="S16">
-        <v>0.01303421814643917</v>
+        <v>0.007480803634657179</v>
       </c>
       <c r="T16">
-        <v>0.01639138218017759</v>
+        <v>0.009357852148123232</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.439194333333334</v>
+        <v>3.664061</v>
       </c>
       <c r="H17">
-        <v>19.317583</v>
+        <v>10.992183</v>
       </c>
       <c r="I17">
-        <v>0.07061043151175238</v>
+        <v>0.05813102367052226</v>
       </c>
       <c r="J17">
-        <v>0.07979709949498723</v>
+        <v>0.06380835016696558</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N17">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O17">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P17">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q17">
-        <v>106.8556095945487</v>
+        <v>48.21463672664749</v>
       </c>
       <c r="R17">
-        <v>641.1336575672921</v>
+        <v>289.287820359885</v>
       </c>
       <c r="S17">
-        <v>0.01187240846282882</v>
+        <v>0.009460597717570927</v>
       </c>
       <c r="T17">
-        <v>0.009953553655310286</v>
+        <v>0.007889604646551938</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.439194333333334</v>
+        <v>3.664061</v>
       </c>
       <c r="H18">
-        <v>19.317583</v>
+        <v>10.992183</v>
       </c>
       <c r="I18">
-        <v>0.07061043151175238</v>
+        <v>0.05813102367052226</v>
       </c>
       <c r="J18">
-        <v>0.07979709949498723</v>
+        <v>0.06380835016696558</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N18">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O18">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P18">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q18">
-        <v>64.72852002113667</v>
+        <v>26.75979410492234</v>
       </c>
       <c r="R18">
-        <v>582.5566801902301</v>
+        <v>240.838146944301</v>
       </c>
       <c r="S18">
-        <v>0.007191793035492005</v>
+        <v>0.00525076334116143</v>
       </c>
       <c r="T18">
-        <v>0.009044150318881505</v>
+        <v>0.006568260498609646</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.439194333333334</v>
+        <v>3.664061</v>
       </c>
       <c r="H19">
-        <v>19.317583</v>
+        <v>10.992183</v>
       </c>
       <c r="I19">
-        <v>0.07061043151175238</v>
+        <v>0.05813102367052226</v>
       </c>
       <c r="J19">
-        <v>0.07979709949498723</v>
+        <v>0.06380835016696558</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N19">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O19">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P19">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q19">
-        <v>129.4056638570858</v>
+        <v>48.04220662666434</v>
       </c>
       <c r="R19">
-        <v>1164.650974713772</v>
+        <v>432.379859639979</v>
       </c>
       <c r="S19">
-        <v>0.01437787781609573</v>
+        <v>0.009426763763380008</v>
       </c>
       <c r="T19">
-        <v>0.0180811221337358</v>
+        <v>0.01179208355694775</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.3552005</v>
+        <v>8.654679</v>
       </c>
       <c r="H20">
-        <v>20.710401</v>
+        <v>17.309358</v>
       </c>
       <c r="I20">
-        <v>0.1135522765496668</v>
+        <v>0.1373081260955459</v>
       </c>
       <c r="J20">
-        <v>0.08555055408215834</v>
+        <v>0.1004788199422596</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N20">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O20">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P20">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q20">
-        <v>138.9201353541472</v>
+        <v>143.304391248975</v>
       </c>
       <c r="R20">
-        <v>555.680541416589</v>
+        <v>573.2175649959</v>
       </c>
       <c r="S20">
-        <v>0.0154350024008477</v>
+        <v>0.02811895492346714</v>
       </c>
       <c r="T20">
-        <v>0.008626900208590853</v>
+        <v>0.01563308112540213</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.3552005</v>
+        <v>8.654679</v>
       </c>
       <c r="H21">
-        <v>20.710401</v>
+        <v>17.309358</v>
       </c>
       <c r="I21">
-        <v>0.1135522765496668</v>
+        <v>0.1373081260955459</v>
       </c>
       <c r="J21">
-        <v>0.08555055408215834</v>
+        <v>0.1004788199422596</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N21">
         <v>60.953383</v>
       </c>
       <c r="O21">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P21">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q21">
-        <v>210.3948340394305</v>
+        <v>175.843987943019</v>
       </c>
       <c r="R21">
-        <v>1262.369004236583</v>
+        <v>1055.063927658114</v>
       </c>
       <c r="S21">
-        <v>0.02337634325107657</v>
+        <v>0.03450382174222325</v>
       </c>
       <c r="T21">
-        <v>0.01959818747333608</v>
+        <v>0.02877424032475815</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.3552005</v>
+        <v>8.654679</v>
       </c>
       <c r="H22">
-        <v>20.710401</v>
+        <v>17.309358</v>
       </c>
       <c r="I22">
-        <v>0.1135522765496668</v>
+        <v>0.1373081260955459</v>
       </c>
       <c r="J22">
-        <v>0.08555055408215834</v>
+        <v>0.1004788199422596</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N22">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O22">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P22">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q22">
-        <v>188.655930363636</v>
+        <v>90.05272257078899</v>
       </c>
       <c r="R22">
-        <v>1131.935582181816</v>
+        <v>540.3163354247339</v>
       </c>
       <c r="S22">
-        <v>0.02096099842311266</v>
+        <v>0.01766999897654301</v>
       </c>
       <c r="T22">
-        <v>0.01757321803124811</v>
+        <v>0.01473578205011089</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.3552005</v>
+        <v>8.654679</v>
       </c>
       <c r="H23">
-        <v>20.710401</v>
+        <v>17.309358</v>
       </c>
       <c r="I23">
-        <v>0.1135522765496668</v>
+        <v>0.1373081260955459</v>
       </c>
       <c r="J23">
-        <v>0.08555055408215834</v>
+        <v>0.1004788199422596</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N23">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O23">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P23">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q23">
-        <v>171.840016719681</v>
+        <v>113.8851683885025</v>
       </c>
       <c r="R23">
-        <v>687.360066878724</v>
+        <v>455.5406735540099</v>
       </c>
       <c r="S23">
-        <v>0.01909263235216681</v>
+        <v>0.02234636279082391</v>
       </c>
       <c r="T23">
-        <v>0.01067121531593739</v>
+        <v>0.01242373705983888</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.3552005</v>
+        <v>8.654679</v>
       </c>
       <c r="H24">
-        <v>20.710401</v>
+        <v>17.309358</v>
       </c>
       <c r="I24">
-        <v>0.1135522765496668</v>
+        <v>0.1373081260955459</v>
       </c>
       <c r="J24">
-        <v>0.08555055408215834</v>
+        <v>0.1004788199422596</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N24">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O24">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P24">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q24">
-        <v>104.093271330135</v>
+        <v>63.207852730671</v>
       </c>
       <c r="R24">
-        <v>624.55962798081</v>
+        <v>379.247116384026</v>
       </c>
       <c r="S24">
-        <v>0.01156549328718142</v>
+        <v>0.01240254221278512</v>
       </c>
       <c r="T24">
-        <v>0.00969624304491477</v>
+        <v>0.01034302034524833</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.3552005</v>
+        <v>8.654679</v>
       </c>
       <c r="H25">
-        <v>20.710401</v>
+        <v>17.309358</v>
       </c>
       <c r="I25">
-        <v>0.1135522765496668</v>
+        <v>0.1373081260955459</v>
       </c>
       <c r="J25">
-        <v>0.08555055408215834</v>
+        <v>0.1004788199422596</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N25">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O25">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P25">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q25">
-        <v>208.1039219672139</v>
+        <v>113.477880637209</v>
       </c>
       <c r="R25">
-        <v>1248.623531803284</v>
+        <v>680.8672838232541</v>
       </c>
       <c r="S25">
-        <v>0.02312180683528162</v>
+        <v>0.02226644544970347</v>
       </c>
       <c r="T25">
-        <v>0.01938479000813114</v>
+        <v>0.01856895903690122</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.577169666666666</v>
+        <v>1.489755666666667</v>
       </c>
       <c r="H26">
-        <v>22.731509</v>
+        <v>4.469267</v>
       </c>
       <c r="I26">
-        <v>0.08308915558448915</v>
+        <v>0.02363525659706394</v>
       </c>
       <c r="J26">
-        <v>0.09389934990025395</v>
+        <v>0.02594357769750229</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N26">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O26">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P26">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q26">
-        <v>101.6514779887335</v>
+        <v>24.66741157255834</v>
       </c>
       <c r="R26">
-        <v>609.908867932401</v>
+        <v>148.00446943535</v>
       </c>
       <c r="S26">
-        <v>0.0112941929030375</v>
+        <v>0.0048401994387059</v>
       </c>
       <c r="T26">
-        <v>0.009468791054972083</v>
+        <v>0.004036453205374955</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.577169666666666</v>
+        <v>1.489755666666667</v>
       </c>
       <c r="H27">
-        <v>22.731509</v>
+        <v>4.469267</v>
       </c>
       <c r="I27">
-        <v>0.08308915558448915</v>
+        <v>0.02363525659706394</v>
       </c>
       <c r="J27">
-        <v>0.09389934990025395</v>
+        <v>0.02594357769750229</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N27">
         <v>60.953383</v>
       </c>
       <c r="O27">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P27">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q27">
-        <v>153.9513749161052</v>
+        <v>30.26854924225122</v>
       </c>
       <c r="R27">
-        <v>1385.562374244947</v>
+        <v>272.416943180261</v>
       </c>
       <c r="S27">
-        <v>0.01710507865102616</v>
+        <v>0.005939245575963432</v>
       </c>
       <c r="T27">
-        <v>0.0215107556311356</v>
+        <v>0.007429493499037394</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.577169666666666</v>
+        <v>1.489755666666667</v>
       </c>
       <c r="H28">
-        <v>22.731509</v>
+        <v>4.469267</v>
       </c>
       <c r="I28">
-        <v>0.08308915558448915</v>
+        <v>0.02363525659706394</v>
       </c>
       <c r="J28">
-        <v>0.09389934990025395</v>
+        <v>0.02594357769750229</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N28">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O28">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P28">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q28">
-        <v>138.044453411416</v>
+        <v>15.50104327943233</v>
       </c>
       <c r="R28">
-        <v>1242.400080702744</v>
+        <v>139.509389514891</v>
       </c>
       <c r="S28">
-        <v>0.01533770798881751</v>
+        <v>0.003041589538479608</v>
       </c>
       <c r="T28">
-        <v>0.01928817137998819</v>
+        <v>0.003804771062898633</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.577169666666666</v>
+        <v>1.489755666666667</v>
       </c>
       <c r="H29">
-        <v>22.731509</v>
+        <v>4.469267</v>
       </c>
       <c r="I29">
-        <v>0.08308915558448915</v>
+        <v>0.02363525659706394</v>
       </c>
       <c r="J29">
-        <v>0.09389934990025395</v>
+        <v>0.02594357769750229</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N29">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O29">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P29">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q29">
-        <v>125.7398118180193</v>
+        <v>19.60339314214416</v>
       </c>
       <c r="R29">
-        <v>754.438870908116</v>
+        <v>117.620358852865</v>
       </c>
       <c r="S29">
-        <v>0.01397057591648342</v>
+        <v>0.003846545966293963</v>
       </c>
       <c r="T29">
-        <v>0.0117126088961372</v>
+        <v>0.003207802280027656</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.577169666666666</v>
+        <v>1.489755666666667</v>
       </c>
       <c r="H30">
-        <v>22.731509</v>
+        <v>4.469267</v>
       </c>
       <c r="I30">
-        <v>0.08308915558448915</v>
+        <v>0.02363525659706394</v>
       </c>
       <c r="J30">
-        <v>0.09389934990025395</v>
+        <v>0.02594357769750229</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N30">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O30">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P30">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q30">
-        <v>76.16775532514333</v>
+        <v>10.88015589987211</v>
       </c>
       <c r="R30">
-        <v>685.5097979262899</v>
+        <v>97.92140309884901</v>
       </c>
       <c r="S30">
-        <v>0.008462772393027835</v>
+        <v>0.002134886521218081</v>
       </c>
       <c r="T30">
-        <v>0.01064249002429589</v>
+        <v>0.002670562334509864</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.577169666666666</v>
+        <v>1.489755666666667</v>
       </c>
       <c r="H31">
-        <v>22.731509</v>
+        <v>4.469267</v>
       </c>
       <c r="I31">
-        <v>0.08308915558448915</v>
+        <v>0.02363525659706394</v>
       </c>
       <c r="J31">
-        <v>0.09389934990025395</v>
+        <v>0.02594357769750229</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N31">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O31">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P31">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q31">
-        <v>152.2750549392395</v>
+        <v>19.53328548876345</v>
       </c>
       <c r="R31">
-        <v>1370.475494453156</v>
+        <v>175.799569398871</v>
       </c>
       <c r="S31">
-        <v>0.01691882773209673</v>
+        <v>0.003832789556402954</v>
       </c>
       <c r="T31">
-        <v>0.021276532913725</v>
+        <v>0.004794495315653787</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.064289666666667</v>
+        <v>4.436121666666666</v>
       </c>
       <c r="H32">
-        <v>27.192869</v>
+        <v>13.308365</v>
       </c>
       <c r="I32">
-        <v>0.09939650390696157</v>
+        <v>0.07037991278265199</v>
       </c>
       <c r="J32">
-        <v>0.1123283421713345</v>
+        <v>0.07725351862044044</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N32">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O32">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P32">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q32">
-        <v>121.6019281695735</v>
+        <v>73.45341345970833</v>
       </c>
       <c r="R32">
-        <v>729.6115690174411</v>
+        <v>440.7204807582499</v>
       </c>
       <c r="S32">
-        <v>0.01351082799091906</v>
+        <v>0.01441290950016932</v>
       </c>
       <c r="T32">
-        <v>0.01132716683024553</v>
+        <v>0.01201955322037145</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.064289666666667</v>
+        <v>4.436121666666666</v>
       </c>
       <c r="H33">
-        <v>27.192869</v>
+        <v>13.308365</v>
       </c>
       <c r="I33">
-        <v>0.09939650390696157</v>
+        <v>0.07037991278265199</v>
       </c>
       <c r="J33">
-        <v>0.1123283421713345</v>
+        <v>0.07725351862044044</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N33">
         <v>60.953383</v>
       </c>
       <c r="O33">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P33">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q33">
-        <v>184.1663732250919</v>
+        <v>90.1322076609772</v>
       </c>
       <c r="R33">
-        <v>1657.497359025827</v>
+        <v>811.1898689487948</v>
       </c>
       <c r="S33">
-        <v>0.02046217710368683</v>
+        <v>0.01768559541185536</v>
       </c>
       <c r="T33">
-        <v>0.02573252659858537</v>
+        <v>0.02212318289561057</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.064289666666667</v>
+        <v>4.436121666666666</v>
       </c>
       <c r="H34">
-        <v>27.192869</v>
+        <v>13.308365</v>
       </c>
       <c r="I34">
-        <v>0.09939650390696157</v>
+        <v>0.07037991278265199</v>
       </c>
       <c r="J34">
-        <v>0.1123283421713345</v>
+        <v>0.07725351862044044</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N34">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O34">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P34">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q34">
-        <v>165.137507492056</v>
+        <v>46.15824962873832</v>
       </c>
       <c r="R34">
-        <v>1486.237567428504</v>
+        <v>415.4242466586449</v>
       </c>
       <c r="S34">
-        <v>0.0183479365184321</v>
+        <v>0.009057096780807268</v>
       </c>
       <c r="T34">
-        <v>0.02307373072265322</v>
+        <v>0.01132966145152951</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.064289666666667</v>
+        <v>4.436121666666666</v>
       </c>
       <c r="H35">
-        <v>27.192869</v>
+        <v>13.308365</v>
       </c>
       <c r="I35">
-        <v>0.09939650390696157</v>
+        <v>0.07037991278265199</v>
       </c>
       <c r="J35">
-        <v>0.1123283421713345</v>
+        <v>0.07725351862044044</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N35">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O35">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P35">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q35">
-        <v>150.4179168594594</v>
+        <v>58.37402669702915</v>
       </c>
       <c r="R35">
-        <v>902.507501156756</v>
+        <v>350.2441601821749</v>
       </c>
       <c r="S35">
-        <v>0.01671248665240344</v>
+        <v>0.01145405671863367</v>
       </c>
       <c r="T35">
-        <v>0.01401136366973672</v>
+        <v>0.009552036964996779</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.064289666666667</v>
+        <v>4.436121666666666</v>
       </c>
       <c r="H36">
-        <v>27.192869</v>
+        <v>13.308365</v>
       </c>
       <c r="I36">
-        <v>0.09939650390696157</v>
+        <v>0.07037991278265199</v>
       </c>
       <c r="J36">
-        <v>0.1123283421713345</v>
+        <v>0.07725351862044044</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N36">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O36">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P36">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q36">
-        <v>91.11668708754334</v>
+        <v>32.39839686740611</v>
       </c>
       <c r="R36">
-        <v>820.0501837878901</v>
+        <v>291.585571806655</v>
       </c>
       <c r="S36">
-        <v>0.01012370366878954</v>
+        <v>0.006357160818082798</v>
       </c>
       <c r="T36">
-        <v>0.01273121978239477</v>
+        <v>0.007952270093263472</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.064289666666667</v>
+        <v>4.436121666666666</v>
       </c>
       <c r="H37">
-        <v>27.192869</v>
+        <v>13.308365</v>
       </c>
       <c r="I37">
-        <v>0.09939650390696157</v>
+        <v>0.07037991278265199</v>
       </c>
       <c r="J37">
-        <v>0.1123283421713345</v>
+        <v>0.07725351862044044</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N37">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O37">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P37">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q37">
-        <v>182.1610532292662</v>
+        <v>58.16526355074944</v>
       </c>
       <c r="R37">
-        <v>1639.449479063396</v>
+        <v>523.4873719567449</v>
       </c>
       <c r="S37">
-        <v>0.0202393719727306</v>
+        <v>0.01141309355310358</v>
       </c>
       <c r="T37">
-        <v>0.02545233456771885</v>
+        <v>0.01427681399466866</v>
       </c>
     </row>
   </sheetData>
